--- a/biology/Zoologie/Glaucocharis_dilatella/Glaucocharis_dilatella.xlsx
+++ b/biology/Zoologie/Glaucocharis_dilatella/Glaucocharis_dilatella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaucocharis dilatella est une espèce de lépidoptères (papillons) de la famille des Crambidae. 
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Glaucocharis dilatella se rencontre en Australie, dont l'Australie-Méridionale, la Tasmanie, le Queensland, la Nouvelle-Galles du Sud et l’État de Victoria.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son envergure est d’environ 15 mm. Les adultes ont des ailes antérieures de couleur crème, avec chacune des marbrures marron et une rangée de points noirs et orange. Les ailes postérieures sont marron clair[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son envergure est d’environ 15 mm. Les adultes ont des ailes antérieures de couleur crème, avec chacune des marbrures marron et une rangée de points noirs et orange. Les ailes postérieures sont marron clair.
 </t>
         </is>
       </c>
